--- a/database/seeds/inventories.xlsx
+++ b/database/seeds/inventories.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Development/lato/workspace/htdocs/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C748FE61-A3A6-694F-BFE3-C85B35108827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D290B-F60A-1C46-A6FD-5D641104A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="23960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>product_id</t>
   </si>
@@ -57,28 +46,25 @@
     <t>material_group_id</t>
   </si>
   <si>
-    <t>Office Sentul</t>
-  </si>
-  <si>
     <t>5d9aaffa-33c0-11ea-aec2-2e728ce88125</t>
   </si>
   <si>
     <t>3M DOUBLE TAPE</t>
   </si>
   <si>
-    <t>Office Tajem</t>
-  </si>
-  <si>
-    <t>Office Sidoarjo</t>
-  </si>
-  <si>
-    <t>Office Medan</t>
+    <t>Store Cibinong</t>
+  </si>
+  <si>
+    <t>Store Riau</t>
+  </si>
+  <si>
+    <t>Distribusi Bogor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,11 +378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -439,19 +425,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -465,19 +451,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -491,19 +477,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -512,32 +498,6 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
         <v>0</v>
       </c>
     </row>

--- a/database/seeds/inventories.xlsx
+++ b/database/seeds/inventories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Development/lato/workspace/htdocs/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D290B-F60A-1C46-A6FD-5D641104A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598FCC60-22C2-CB4C-A5BA-67F2B58D0C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="23960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="65">
   <si>
     <t>product_id</t>
   </si>
@@ -52,10 +52,166 @@
     <t>3M DOUBLE TAPE</t>
   </si>
   <si>
-    <t>Store Cibinong</t>
+    <t>branch_id</t>
+  </si>
+  <si>
+    <t>5d9ab270-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9ab3d8-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9ab536-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9ac882-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9aca26-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9acb70-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9acca6-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9ae2c2-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9ae448-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>5d9ae9b6-33c0-11ea-aec2-2e728ce88125</t>
+  </si>
+  <si>
+    <t>1da3fc20-8893-4442-9b2e-b898803f59e6</t>
+  </si>
+  <si>
+    <t>0e484185-c732-49e2-a42e-313132cd0323</t>
+  </si>
+  <si>
+    <t>57d37def-3ef2-4ec5-bad2-5bc0ef23f0f5</t>
+  </si>
+  <si>
+    <t>6ab4525d-43fc-400a-b939-c60a33baf88b</t>
+  </si>
+  <si>
+    <t>ec54e929-880d-4471-bff5-562a918583e1</t>
+  </si>
+  <si>
+    <t>4323247d-8309-48e4-98db-43812167055f</t>
+  </si>
+  <si>
+    <t>11cc6b56-1a26-40e8-a253-8b593231162f</t>
+  </si>
+  <si>
+    <t>3b6cc981-23f7-402d-a6fc-48010b7d95b4</t>
+  </si>
+  <si>
+    <t>ba2a3da9-f1f5-421f-a634-968e1c790826</t>
+  </si>
+  <si>
+    <t>bb973641-343f-41d0-90fe-f9133343bd82</t>
+  </si>
+  <si>
+    <t>e9c526cc-98cf-4017-8584-eadb8d3f7222</t>
+  </si>
+  <si>
+    <t>056001c2-6f78-4916-aa05-cfabc67c2ca3</t>
+  </si>
+  <si>
+    <t>ec6bec70-ee49-44ec-a854-a83bb93e29fe</t>
+  </si>
+  <si>
+    <t>ebdeed28-1321-470b-bd6c-fce249a145a3</t>
+  </si>
+  <si>
+    <t>AMPLOP COKLAT FOLIO F4 PAKE SEAL</t>
+  </si>
+  <si>
+    <t>AMPLOP COKLAT A4 NON SEAL</t>
+  </si>
+  <si>
+    <t>AMPLOP PUTIH (110 x 230 mm)</t>
+  </si>
+  <si>
+    <t>AMPLOP PUTIH (90 x 152 mm)</t>
+  </si>
+  <si>
+    <t>AMPLOP PUTIH (114 x 162 mm)</t>
+  </si>
+  <si>
+    <t>AMPLOP COKLAT A4 PAKE SEAL</t>
+  </si>
+  <si>
+    <t>ISI PULPEN (TGEL KE-303 KENKO BLACK)</t>
+  </si>
+  <si>
+    <t>PULPEN STANDARD AE7 (HITAM)</t>
+  </si>
+  <si>
+    <t>PULPEN STANDARD P5 (HITAM)</t>
+  </si>
+  <si>
+    <t>ISI PULPEN (HITAM)</t>
+  </si>
+  <si>
+    <t>BINDER CLIP NO. 106 (15 MM)</t>
+  </si>
+  <si>
+    <t>BINDER CLIP NO.155 (32 MM)</t>
+  </si>
+  <si>
+    <t>BINDER CLIP NO.105 (13 MM)</t>
+  </si>
+  <si>
+    <t>BINDER CLIP NO. 107</t>
+  </si>
+  <si>
+    <t>BINDER CLIP NO. 111 (25 MM)</t>
+  </si>
+  <si>
+    <t>BINDER CLIP NO. 260 (51 MM)</t>
+  </si>
+  <si>
+    <t>BINDER CLIP NO. 200 (41 MM)</t>
+  </si>
+  <si>
+    <t>BUKU BESAR F4</t>
+  </si>
+  <si>
+    <t>BUKU A4 (HARD COVER)</t>
+  </si>
+  <si>
+    <t>BUKU A5 (HARD COVER)</t>
+  </si>
+  <si>
+    <t>BUKU KWITANSI</t>
+  </si>
+  <si>
+    <t>BUKU TULIS 58 LEMBAR</t>
+  </si>
+  <si>
+    <t>CALCULATOR BESAR CITIZEN</t>
+  </si>
+  <si>
+    <t>CALCULATOR CASIO DH12 HITAM</t>
+  </si>
+  <si>
+    <t>Office Sentul</t>
   </si>
   <si>
     <t>Store Riau</t>
+  </si>
+  <si>
+    <t>Office Tajem</t>
+  </si>
+  <si>
+    <t>Office Sidoarjo</t>
+  </si>
+  <si>
+    <t>Store Sentul</t>
   </si>
   <si>
     <t>Distribusi Bogor</t>
@@ -101,9 +257,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,25 +536,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128:F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,99 +563,4374 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="B79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>10</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>10</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>10</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>10</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>10</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>62</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>10</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>63</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>63</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>63</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>10</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>10</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>10</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>63</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>10</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>10</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>10</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>10</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>10</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>10</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>10</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>63</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>10</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>10</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>63</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>64</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+      <c r="G128">
+        <v>10</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>64</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <v>10</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>10</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F132">
+        <v>7</v>
+      </c>
+      <c r="G132">
+        <v>10</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>10</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>64</v>
+      </c>
+      <c r="F134">
+        <v>7</v>
+      </c>
+      <c r="G134">
+        <v>10</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135">
+        <v>7</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136">
+        <v>7</v>
+      </c>
+      <c r="G136">
+        <v>10</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>8</v>
+      </c>
+      <c r="E137" t="s">
+        <v>64</v>
+      </c>
+      <c r="F137">
+        <v>7</v>
+      </c>
+      <c r="G137">
+        <v>10</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>64</v>
+      </c>
+      <c r="F138">
+        <v>7</v>
+      </c>
+      <c r="G138">
+        <v>10</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>64</v>
+      </c>
+      <c r="F139">
+        <v>7</v>
+      </c>
+      <c r="G139">
+        <v>10</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>64</v>
+      </c>
+      <c r="F140">
+        <v>7</v>
+      </c>
+      <c r="G140">
+        <v>10</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>64</v>
+      </c>
+      <c r="F141">
+        <v>7</v>
+      </c>
+      <c r="G141">
+        <v>10</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>64</v>
+      </c>
+      <c r="F142">
+        <v>7</v>
+      </c>
+      <c r="G142">
+        <v>10</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>64</v>
+      </c>
+      <c r="F143">
+        <v>7</v>
+      </c>
+      <c r="G143">
+        <v>10</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>64</v>
+      </c>
+      <c r="F144">
+        <v>7</v>
+      </c>
+      <c r="G144">
+        <v>10</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>64</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
+      <c r="G145">
+        <v>10</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>64</v>
+      </c>
+      <c r="F146">
+        <v>7</v>
+      </c>
+      <c r="G146">
+        <v>10</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>64</v>
+      </c>
+      <c r="F147">
+        <v>7</v>
+      </c>
+      <c r="G147">
+        <v>10</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>64</v>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+      <c r="G148">
+        <v>10</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>64</v>
+      </c>
+      <c r="F149">
+        <v>7</v>
+      </c>
+      <c r="G149">
+        <v>10</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>64</v>
+      </c>
+      <c r="F150">
+        <v>7</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>64</v>
+      </c>
+      <c r="F151">
+        <v>7</v>
+      </c>
+      <c r="G151">
+        <v>10</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
         <v>0</v>
       </c>
     </row>
